--- a/biology/Mycologie/Xerocomus_ferrugineus/Xerocomus_ferrugineus.xlsx
+++ b/biology/Mycologie/Xerocomus_ferrugineus/Xerocomus_ferrugineus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bolet ferrugineux
 Xerocomus ferrugineus, le Bolet ferrugineux, anciennement Boletus ferrugineus, est une espèce de champignons basidiomycètes du genre Xerocomus et de la famille des Boletaceae. Comestible moyen, il est caractérisé par son mycélium jaune et sa chair de couleur uniforme immuable à la coupe.
@@ -512,12 +524,49 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Xerocomus ferrugineus (Schaeff.) Alessio[1].
-L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus ferrugineus Schaeff.[1] 1774[2].
-Synonymes
-Xerocomus ferrugineus a pour synonymes[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Xerocomus ferrugineus (Schaeff.) Alessio.
+L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus ferrugineus Schaeff. 1774.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Xerocomus_ferrugineus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Xerocomus_ferrugineus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Xerocomus ferrugineus a pour synonymes :
 Boletus citrinovirens Watling
 Boletus ferrugineus f. citrinovirens (Watling) Watling
 Boletus ferrugineus Schaeff.
@@ -546,39 +595,6 @@
 Xerocomus subtomentosus var. ferruginosus (Schaeff.) Krieglst.
 Xerocomus subtomentosus var. spadiceus (Fr.) E.-J.Gilbert
 Xerocomus subtomentosus var. variicolor (Berk. &amp; Broome) H.Engel &amp; E.Ludw.
-Étymologie
-L'épithète spécifique ferrugineus fait référence à la couleur rouille ferrugineuse de son chapeau.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Xerocomus_ferrugineus</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Mycologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Xerocomus_ferrugineus</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Noms vulgaires et vernaculaires</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce taxon porte en français le nom vernaculaire ou normalisé suivant : bolet ferrugineux[3],[4].
 </t>
         </is>
       </c>
@@ -604,23 +620,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Description du sporophore</t>
+          <t>Systématique</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Les bolets sont des champignons dont l’hyménophore, constitué de tubes et terminés par des pores, se sépare facilement de la chair du chapeau. Ce chapeau d'abord rond, recouvert d'une cuticule, devient convexe à mesure qu’il vieillit. Ils ont un pied (stipe) central assez épais et une chair compacte. Les caractéristiques morphologiques de Xerocomus ferrugineus, le Bolet ferrugineux, sont les suivantes :
-Son chapeau est de couleur brun clair, brun ocre à brun-rouge (exceptionnellement vert bouteille à olivâtre : en montagne, forme citrinovirens)[5].
-L'hyménophore présente des pores jaunes puis jaune verdâtre, bleuissant à la pression[5].
-Son stipe, mesurant 3-10 x 1-3 cm[6], est jaunâtre plus ou moins envahi de brun-roux, parfois avec des côtes ou un pseudo-réseau[5]rouge.
-Sa chair est blanche, immuable. Son mycélium basal est jaune[5].
-Réactions chimiques
-Vapeurs d'ammoniaque bleu-vert : bleu-vert (cuticule, pied)[6].
-Caractéristiques microscopiques
-Spores fusiformes, lisses, à paroi épaisse, brun olive, 10,5-15 x 4-5 µm.
-Basides clavées, tétrasporiques, non bouclées.
-Cheilocystides et pleurocystides fusiformes.
-Cuticule trichodermique faite d'hyphes dressées de 5-15 µm à pigmentation brune[6].</t>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique ferrugineus fait référence à la couleur rouille ferrugineuse de son chapeau.
+</t>
         </is>
       </c>
     </row>
@@ -645,10 +657,158 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Noms vulgaires et vernaculaires</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce taxon porte en français le nom vernaculaire ou normalisé suivant : bolet ferrugineux,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Xerocomus_ferrugineus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Xerocomus_ferrugineus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les bolets sont des champignons dont l’hyménophore, constitué de tubes et terminés par des pores, se sépare facilement de la chair du chapeau. Ce chapeau d'abord rond, recouvert d'une cuticule, devient convexe à mesure qu’il vieillit. Ils ont un pied (stipe) central assez épais et une chair compacte. Les caractéristiques morphologiques de Xerocomus ferrugineus, le Bolet ferrugineux, sont les suivantes :
+Son chapeau est de couleur brun clair, brun ocre à brun-rouge (exceptionnellement vert bouteille à olivâtre : en montagne, forme citrinovirens).
+L'hyménophore présente des pores jaunes puis jaune verdâtre, bleuissant à la pression.
+Son stipe, mesurant 3-10 x 1-3 cm, est jaunâtre plus ou moins envahi de brun-roux, parfois avec des côtes ou un pseudo-réseaurouge.
+Sa chair est blanche, immuable. Son mycélium basal est jaune.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Xerocomus_ferrugineus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Xerocomus_ferrugineus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Réactions chimiques</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vapeurs d'ammoniaque bleu-vert : bleu-vert (cuticule, pied).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Xerocomus_ferrugineus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Xerocomus_ferrugineus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Caractéristiques microscopiques</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Spores fusiformes, lisses, à paroi épaisse, brun olive, 10,5-15 x 4-5 µm.
+Basides clavées, tétrasporiques, non bouclées.
+Cheilocystides et pleurocystides fusiformes.
+Cuticule trichodermique faite d'hyphes dressées de 5-15 µm à pigmentation brune.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Xerocomus_ferrugineus</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Xerocomus_ferrugineus</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Variétés et formes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Xerocomus ferrugineus f. citrinovirens est une forme montagnarde à cuticule olivâtre, rappelant Xerocomus subtomentosus.
 </t>
